--- a/Documents/Message Format.xlsx
+++ b/Documents/Message Format.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -488,32 +488,32 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="3" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="Z1" s="4" t="s">
         <v>9</v>
@@ -728,15 +728,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:P1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="AH1:AO1"/>
     <mergeCell ref="V3:Y3"/>
@@ -744,6 +735,15 @@
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" verticalDpi="0" r:id="rId1"/>
